--- a/data/trans_bre/PCS12_SP_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/PCS12_SP_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,33%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 11,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 10,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 8,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 7,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 59,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,38; 48,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,62; 58,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,48; 56,22</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,72%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,05; 20,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,53; 11,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 6,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,8; 5,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,13; 97,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,9; 47,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,38; 32,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,9; 24,93</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,65%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,76; 19,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,28; 13,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,28; 15,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 7,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,85; 63,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,01; 40,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,71; 70,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,88; 24,57</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,19%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,21; 23,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,13; 15,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 10,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,03; 8,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,55; 58,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,99; 40,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 30,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,26; 18,55</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 10,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,03; 18,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 13,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 10,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 17,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,68; 34,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 25,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 18,9</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,49</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,01%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,02; 12,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,65; 11,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,45; 14,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,01; 21,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,93; 16,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,17; 14,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,11; 20,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,43; 30,63</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,7%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,04; 16,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,93; 12,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,31; 11,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,95; 12,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,23; 41,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,39; 29,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,74; 29,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,84; 26,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PCS12_SP_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,33%</t>
+          <t>-5,01%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 7,16</t>
+          <t>-10,46; 7,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-42,48; 56,22</t>
+          <t>-43,72; 55,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,72%</t>
+          <t>-15,3%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 5,85</t>
+          <t>-15,36; 3,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 24,93</t>
+          <t>-45,04; 13,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>8,32%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 7,5</t>
+          <t>-2,52; 7,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 24,57</t>
+          <t>-6,5; 25,28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-10,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>-17,05%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 8,49</t>
+          <t>-35,01; 6,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 18,55</t>
+          <t>-44,98; 13,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>8,59%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 10,38</t>
+          <t>0,12; 9,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 18,9</t>
+          <t>0,19; 17,47</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>10,5</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4,96</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>8,89</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,91</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,07</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,49</t>
+          <t>21,26</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>33,71%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,02; 12,89</t>
+          <t>4,9; 17,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,65; 11,12</t>
+          <t>-1,41; 11,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,45; 14,3</t>
+          <t>1,69; 15,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,01; 21,36</t>
+          <t>11,89; 32,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,93; 16,05</t>
+          <t>6,01; 23,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 14,25</t>
+          <t>-1,69; 15,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,11; 20,13</t>
+          <t>2,6; 24,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,43; 30,63</t>
+          <t>18,53; 55,16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,48</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>13,92%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,11; 9,93</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 12,41</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3,89; 14,74</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 15,29</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 11,3</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 15,01</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 19,01</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8,58; 20,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14,48</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,3</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>34,01%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23,41%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22,8%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>12,04; 16,95</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>7,93; 12,58</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>6,31; 11,21</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 12,03</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-6,71; 12,12</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>27,23; 41,08</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>17,39; 29,42</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>15,74; 29,72</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>7,84; 26,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-12,97; 25,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/PCS12_SP_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 11,46</t>
+          <t>0,34; 11,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 10,2</t>
+          <t>-2,63; 9,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 8,91</t>
+          <t>-1,88; 9,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 7,93</t>
+          <t>-9,84; 8,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 59,13</t>
+          <t>1,11; 60,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 48,01</t>
+          <t>-9,45; 46,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 58,87</t>
+          <t>-9,28; 58,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,72; 55,77</t>
+          <t>-42,06; 65,35</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,05; 20,78</t>
+          <t>10,21; 21,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 11,93</t>
+          <t>2,1; 13,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 6,31</t>
+          <t>-3,39; 6,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 3,99</t>
+          <t>-15,87; 3,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,13; 97,25</t>
+          <t>40,0; 98,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 47,2</t>
+          <t>6,87; 52,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 32,49</t>
+          <t>-14,35; 35,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,04; 13,67</t>
+          <t>-48,72; 10,44</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,76; 19,68</t>
+          <t>8,72; 19,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 13,57</t>
+          <t>3,15; 14,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 15,04</t>
+          <t>5,2; 15,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 7,77</t>
+          <t>-2,75; 8,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,85; 63,11</t>
+          <t>24,34; 61,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,01; 40,72</t>
+          <t>7,81; 41,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,71; 70,42</t>
+          <t>19,68; 69,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 25,28</t>
+          <t>-7,32; 26,71</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 23,23</t>
+          <t>10,73; 23,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 15,34</t>
+          <t>3,06; 15,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 10,88</t>
+          <t>-0,06; 11,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 6,4</t>
+          <t>-34,93; 5,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,55; 58,88</t>
+          <t>23,44; 60,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 40,17</t>
+          <t>6,44; 39,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 30,43</t>
+          <t>-0,13; 31,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 13,73</t>
+          <t>-43,21; 11,87</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 10,72</t>
+          <t>-2,06; 10,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 18,98</t>
+          <t>4,99; 18,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 13,28</t>
+          <t>-0,14; 12,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 9,78</t>
+          <t>0,45; 10,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 17,36</t>
+          <t>-2,88; 17,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,68; 34,93</t>
+          <t>7,97; 33,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 25,6</t>
+          <t>-0,22; 24,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 17,47</t>
+          <t>0,72; 19,31</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,9; 17,16</t>
+          <t>4,32; 16,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 11,41</t>
+          <t>-1,73; 11,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 15,65</t>
+          <t>2,05; 15,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,89; 32,65</t>
+          <t>11,79; 33,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,01; 23,87</t>
+          <t>5,42; 23,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 15,97</t>
+          <t>-2,2; 16,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,6; 24,47</t>
+          <t>2,7; 23,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,53; 55,16</t>
+          <t>18,44; 57,25</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 9,93</t>
+          <t>0,61; 10,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 12,41</t>
+          <t>2,26; 12,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,89; 14,74</t>
+          <t>3,82; 14,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 15,29</t>
+          <t>6,86; 15,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 11,3</t>
+          <t>0,67; 11,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,63; 15,01</t>
+          <t>2,6; 14,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 19,01</t>
+          <t>4,45; 18,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,58; 20,0</t>
+          <t>8,23; 20,03</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,04; 16,95</t>
+          <t>11,98; 16,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,58</t>
+          <t>7,77; 12,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,31; 11,21</t>
+          <t>6,09; 11,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 12,12</t>
+          <t>-6,07; 12,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,23; 41,08</t>
+          <t>27,35; 40,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,39; 29,42</t>
+          <t>17,15; 30,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,74; 29,72</t>
+          <t>14,88; 29,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 25,26</t>
+          <t>-11,29; 25,91</t>
         </is>
       </c>
     </row>
